--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberts\Documents\repos\Bakalaurs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48540173-55F8-4414-878E-D92C01D514B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D202F-5541-49CD-988E-761C102FB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28A2DD81-7CF0-4A2A-BACB-6D720F607A56}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -205,15 +205,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -557,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AAB407-4B1E-44B9-BB73-39162D65F03B}">
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,14 +563,14 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:8">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,69 +581,75 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="13"/>
+    <row r="3" spans="2:8">
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>0.70730000000000004</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="H3" s="10">
+        <v>0.76219999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>0.83840000000000003</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>0.78349999999999997</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="10">
+        <v>0.80030000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>0.76680000000000004</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>0.76829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="13"/>
+    <row r="6" spans="2:8">
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>0.83989999999999998</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="13"/>
+    <row r="7" spans="2:8">
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>0.85209999999999997</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:8">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:8">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,35 +660,35 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:8">
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:8">
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:8">
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:8">
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:8">
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
@@ -732,10 +733,10 @@
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -749,7 +750,7 @@
       <c r="D3" s="1">
         <v>0.56711071729660034</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>0.73475611209869385</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -758,10 +759,10 @@
       <c r="H3" s="1">
         <v>0.1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3">
         <v>0.53129708766937256</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0.78658539056777954</v>
       </c>
     </row>
@@ -785,16 +786,16 @@
       <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -814,7 +815,6 @@
       <c r="E6" s="1">
         <v>0.87669152021408081</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -847,7 +847,6 @@
       <c r="E7" s="1">
         <v>0.92394006252288818</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -880,7 +879,6 @@
       <c r="E8" s="1">
         <v>0.92108643054962158</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -913,7 +911,6 @@
       <c r="E9" s="1">
         <v>0.87997567653656006</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="1">
         <v>4</v>
       </c>
@@ -946,7 +943,6 @@
       <c r="E10" s="1">
         <v>0.82072877883911133</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="1">
         <v>5</v>
       </c>
@@ -979,7 +975,6 @@
       <c r="E11" s="1">
         <v>0.75232177972793579</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="1">
         <v>6</v>
       </c>
@@ -1012,7 +1007,6 @@
       <c r="E12" s="1">
         <v>0.71041315793991089</v>
       </c>
-      <c r="F12" s="7"/>
       <c r="G12" s="1">
         <v>7</v>
       </c>
@@ -1045,7 +1039,6 @@
       <c r="E13" s="1">
         <v>0.69438570737838745</v>
       </c>
-      <c r="F13" s="7"/>
       <c r="G13" s="1">
         <v>8</v>
       </c>
@@ -1078,7 +1071,6 @@
       <c r="E14" s="1">
         <v>0.6847379207611084</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="1">
         <v>9</v>
       </c>
@@ -1111,7 +1103,6 @@
       <c r="E15" s="1">
         <v>0.66940486431121826</v>
       </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="1">
         <v>10</v>
       </c>
@@ -1144,7 +1135,6 @@
       <c r="E16" s="1">
         <v>0.65400367975234985</v>
       </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="1">
         <v>11</v>
       </c>
@@ -1177,7 +1167,6 @@
       <c r="E17" s="1">
         <v>0.64735102653503418</v>
       </c>
-      <c r="F17" s="7"/>
       <c r="G17" s="1">
         <v>12</v>
       </c>
@@ -1210,7 +1199,6 @@
       <c r="E18" s="1">
         <v>0.61961930990219116</v>
       </c>
-      <c r="F18" s="7"/>
       <c r="G18" s="1">
         <v>13</v>
       </c>
@@ -1243,7 +1231,6 @@
       <c r="E19" s="1">
         <v>0.64417749643325806</v>
       </c>
-      <c r="F19" s="7"/>
       <c r="G19" s="1">
         <v>14</v>
       </c>
@@ -1276,7 +1263,6 @@
       <c r="E20" s="1">
         <v>0.63258147239685059</v>
       </c>
-      <c r="F20" s="7"/>
       <c r="G20" s="1">
         <v>15</v>
       </c>
@@ -1309,7 +1295,6 @@
       <c r="E21" s="1">
         <v>0.60643994808197021</v>
       </c>
-      <c r="F21" s="7"/>
       <c r="G21" s="1">
         <v>16</v>
       </c>
@@ -1342,7 +1327,6 @@
       <c r="E22" s="1">
         <v>0.6120179295539856</v>
       </c>
-      <c r="F22" s="7"/>
       <c r="G22" s="1">
         <v>17</v>
       </c>
@@ -1360,22 +1344,21 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>18</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>0.92347419261932373</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>0.2109530121088028</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>0.7377622127532959</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>0.56974166631698608</v>
       </c>
-      <c r="F23" s="7"/>
       <c r="G23" s="1">
         <v>18</v>
       </c>
@@ -1408,7 +1391,6 @@
       <c r="E24" s="1">
         <v>0.60452324151992798</v>
       </c>
-      <c r="F24" s="7"/>
       <c r="G24" s="1">
         <v>19</v>
       </c>
@@ -1441,7 +1423,6 @@
       <c r="E25" s="1">
         <v>0.6384958028793335</v>
       </c>
-      <c r="F25" s="7"/>
       <c r="G25" s="1">
         <v>20</v>
       </c>
@@ -1474,7 +1455,6 @@
       <c r="E26" s="1">
         <v>0.58374559879302979</v>
       </c>
-      <c r="F26" s="7"/>
       <c r="G26" s="1">
         <v>21</v>
       </c>
@@ -1507,7 +1487,6 @@
       <c r="E27" s="1">
         <v>0.64825451374053955</v>
       </c>
-      <c r="F27" s="7"/>
       <c r="G27" s="1">
         <v>22</v>
       </c>
@@ -1540,7 +1519,6 @@
       <c r="E28" s="1">
         <v>0.58048743009567261</v>
       </c>
-      <c r="F28" s="7"/>
       <c r="G28" s="1">
         <v>23</v>
       </c>
@@ -1575,19 +1553,19 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="G30" s="12">
+      <c r="G30" s="9">
         <v>25</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="9">
         <v>0.97247463464736938</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="9">
         <v>9.4817981123924255E-2</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="9">
         <v>0.83216780424118042</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="9">
         <v>0.43696552515029907</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberts\Documents\repos\Bakalaurs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D202F-5541-49CD-988E-761C102FB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D015A15-E893-4984-888B-6A82D716D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28A2DD81-7CF0-4A2A-BACB-6D720F607A56}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="EfficientNetB7" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -196,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -216,6 +217,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -552,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AAB407-4B1E-44B9-BB73-39162D65F03B}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,14 +565,14 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:12">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:12">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -581,8 +583,10 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="10"/>
+    <row r="3" spans="2:12">
+      <c r="B3" s="10">
+        <v>0.79879999999999995</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,8 +598,10 @@
         <v>0.76219999999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="10"/>
+    <row r="4" spans="2:12">
+      <c r="B4" s="10">
+        <v>0.81100000000000005</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +616,7 @@
         <v>0.80030000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:12">
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -622,7 +628,7 @@
         <v>0.76829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:12">
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -632,7 +638,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:12">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -642,14 +648,31 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="9" spans="2:12">
+      <c r="H9" s="13">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.75760000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="10">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.76980000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,36 +682,45 @@
       <c r="E11" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="K11" s="10">
+        <v>0.76829999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="K12" s="13">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="K13" s="13">
+        <v>0.7409</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:12">
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:12">
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberts\Documents\repos\Bakalaurs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D015A15-E893-4984-888B-6A82D716D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2327648B-3B82-4E55-8BC5-B565C2E6AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28A2DD81-7CF0-4A2A-BACB-6D720F607A56}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28A2DD81-7CF0-4A2A-BACB-6D720F607A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined results" sheetId="1" r:id="rId1"/>
     <sheet name="MobileNetV2" sheetId="2" r:id="rId2"/>
-    <sheet name="EfficientNetB7" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="EfficientNetB7" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>MobileNetV2</t>
   </si>
@@ -554,25 +554,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AAB407-4B1E-44B9-BB73-39162D65F03B}">
-  <dimension ref="B1:L16"/>
+  <dimension ref="B1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:21">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:21">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -583,7 +585,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:21">
       <c r="B3" s="10">
         <v>0.79879999999999995</v>
       </c>
@@ -598,7 +600,7 @@
         <v>0.76219999999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:21">
       <c r="B4" s="10">
         <v>0.81100000000000005</v>
       </c>
@@ -615,8 +617,13 @@
       <c r="H4" s="10">
         <v>0.80030000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -627,8 +634,17 @@
       <c r="E5" s="12">
         <v>0.76829999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -637,8 +653,15 @@
         <v>0.83989999999999998</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="P6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -647,8 +670,28 @@
         <v>0.85209999999999997</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="P7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0.78349999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0.76829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="H9" s="13">
         <v>0.76219999999999999</v>
       </c>
@@ -658,8 +701,15 @@
       <c r="L9" s="13">
         <v>0.75760000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="2:21">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -671,8 +721,15 @@
       <c r="K10" s="10">
         <v>0.76980000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="2:21">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -686,7 +743,7 @@
         <v>0.76829999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:21">
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
@@ -696,7 +753,7 @@
         <v>0.7591</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:21">
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
@@ -706,21 +763,45 @@
         <v>0.7409</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:21">
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="P15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0.78349999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A43DAC-16AB-419B-8976-932A107EBFC2}">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1693,6 +1774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B969A-986D-40A4-8A0B-8626ECEA6B86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCEAA14-EF53-48EC-9D75-9C180B0646D5}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberts\Documents\repos\Bakalaurs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2327648B-3B82-4E55-8BC5-B565C2E6AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4E85B4-6E34-4D5E-9A04-8BE5893BB517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28A2DD81-7CF0-4A2A-BACB-6D720F607A56}"/>
+    <workbookView xWindow="41940" yWindow="0" windowWidth="15660" windowHeight="11385" xr2:uid="{28A2DD81-7CF0-4A2A-BACB-6D720F607A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined results" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>MobileNetV2</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>data denoising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run time </t>
+  </si>
+  <si>
+    <t>2458 min</t>
   </si>
 </sst>
 </file>
@@ -168,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,13 +197,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -218,6 +235,7 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -554,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AAB407-4B1E-44B9-BB73-39162D65F03B}">
-  <dimension ref="B1:U16"/>
+  <dimension ref="B1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,6 +826,14 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -818,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A43DAC-16AB-419B-8976-932A107EBFC2}">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
